--- a/test1.xlsx
+++ b/test1.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -444,807 +443,1007 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.09365281716813133</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[1.         0.78478748 0.48943858 0.21928632 0.40871644 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.140623750759326</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[1.         0.77460402 0.43681098 0.23685318 0.38383481 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.1713679698200489</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[1.         0.7672517  0.39383224 0.25113407 0.36001391 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.1862424887240857</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[1.         0.76217082 0.36076496 0.26220069 0.3396256  0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.1925642217814797</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[1.         0.7587784  0.3366177  0.27039616 0.32359978 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.195146675044549</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[1.         0.7565699  0.31973572 0.27622009 0.31179919 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.1961893299143301</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[1.         0.75515694 0.30833358 0.28021513 0.3035262  0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.1966166787262715</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[1.         0.75426313 0.30083009 0.28287934 0.29792995 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.196775716667751</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[1.         0.75370169 0.29598338 0.28461887 0.29423825 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.196837541919024</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[1.         0.75335053 0.29289267 0.28573772 0.2918442  0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.1968413810680824</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[1.         0.75313146 0.29093849 0.28645002 0.2903092  0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.196841386345191</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[1.         0.75299498 0.28970974 0.28690045 0.28933228 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.1968413863522475</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[1.         0.75291003 0.28893984 0.28718402 0.28871352 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[1.         0.75285718 0.2884585  0.28736205 0.28832284 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[1.         0.75282431 0.28815796 0.28747362 0.28807666 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[1.         0.75280386 0.28797047 0.28754347 0.28792176 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[1.         0.75279114 0.28785355 0.28758716 0.28782437 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[1.         0.75278323 0.28778067 0.28761448 0.28776318 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[1.         0.7527783  0.28773523 0.28763156 0.28772475 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[1.         0.75277524 0.28770691 0.28764223 0.28770063 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[1.         0.75277333 0.28768925 0.2876489  0.28768549 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[1.         0.75277215 0.28767825 0.28765307 0.28767599 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[1.         0.75277146 0.28767167 0.28765567 0.28766968 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[1.         0.75277104 0.28766763 0.28765729 0.28766566 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[1.         0.75277077 0.28766511 0.2876583  0.28766317 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[1.         0.75277061 0.28766353 0.28765892 0.28766164 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[1.         0.75277051 0.28766256 0.2876593  0.28766072 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[1.         0.75277044 0.28766199 0.28765951 0.28766027 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[1.         0.75277041 0.2876617  0.2876596  0.28766017 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>0.1968413863522568</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>0.1968413863522569</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +452,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1.         0.78478748 0.48943858 0.21928632 0.40871644 0.        ]</t>
+          <t>[1.         0.66666667 0.66666667 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1.         0.77460402 0.43681098 0.23685318 0.38383481 0.        ]</t>
+          <t>[1.         0.66666667 0.66666667 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1.         0.7672517  0.39383224 0.25113407 0.36001391 0.        ]</t>
+          <t>[1.         0.66666667 0.66666667 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1.         0.76217082 0.36076496 0.26220069 0.3396256  0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1.         0.7587784  0.3366177  0.27039616 0.32359978 0.        ]</t>
+          <t>[1.         0.66666667 0.66666667 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1.         0.7565699  0.31973572 0.27622009 0.31179919 0.        ]</t>
+          <t>[1.         0.66666667 0.66666667 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1.         0.75515694 0.30833358 0.28021513 0.3035262  0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1.         0.75426313 0.30083009 0.28287934 0.29792995 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1.         0.75370169 0.29598338 0.28461887 0.29423825 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1.         0.75335053 0.29289267 0.28573772 0.2918442  0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[1.         0.75313146 0.29093849 0.28645002 0.2903092  0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1.         0.75299498 0.28970974 0.28690045 0.28933228 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[1.         0.75291003 0.28893984 0.28718402 0.28871352 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[1.         0.75285718 0.2884585  0.28736205 0.28832284 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[1.         0.75282431 0.28815796 0.28747362 0.28807666 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[1.         0.75280386 0.28797047 0.28754347 0.28792176 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[1.         0.75279114 0.28785355 0.28758716 0.28782437 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[1.         0.75278323 0.28778067 0.28761448 0.28776318 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[1.         0.7527783  0.28773523 0.28763156 0.28772475 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[1.         0.75277524 0.28770691 0.28764223 0.28770063 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[1.         0.75277333 0.28768925 0.2876489  0.28768549 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[1.         0.75277215 0.28767825 0.28765307 0.28767599 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[1.         0.75277146 0.28767167 0.28765567 0.28766968 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[1.         0.75277104 0.28766763 0.28765729 0.28766566 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[1.         0.75277077 0.28766511 0.2876583  0.28766317 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[1.         0.75277061 0.28766353 0.28765892 0.28766164 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[1.         0.75277051 0.28766256 0.2876593  0.28766072 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[1.         0.75277044 0.28766199 0.28765951 0.28766027 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[1.         0.75277041 0.2876617  0.2876596  0.28766017 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333332 0.33333332 0.        ]</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666665 0.66666665 0.33333332 0.33333332 0.        ]</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333332 0.33333332 0.        ]</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666665 0.66666665 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666665 0.66666665 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666665 0.66666665 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666665 0.66666665 0.33333332 0.33333332 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333332 0.33333332 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666665 0.66666665 0.33333332 0.33333332 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333332 0.33333332 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[1.         0.75277039 0.28766156 0.28765964 0.28766012 0.        ]</t>
+          <t>[1.         0.66666666 0.66666666 0.33333333 0.33333333 0.        ]</t>
         </is>
       </c>
     </row>
